--- a/Matriz de autores-libro Hermosilla Joffre y Ulfe Hugo.xlsx
+++ b/Matriz de autores-libro Hermosilla Joffre y Ulfe Hugo.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tesis\Documentacion Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F60461B-CCD3-41B5-A792-A000B8FA51C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7FDE1C-8623-40D8-9B20-120B433ACEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DA185794-AA02-4B65-AB94-48B45DD07D0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DA185794-AA02-4B65-AB94-48B45DD07D0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz autores " sheetId="3" r:id="rId1"/>
-    <sheet name="Matriz 2" sheetId="4" r:id="rId2"/>
+    <sheet name="Matriz Operacional" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId3"/>
+    <sheet name="Matriz de Consistencia" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
   <si>
     <t>Variable</t>
   </si>
@@ -137,9 +140,6 @@
     </r>
   </si>
   <si>
-    <t>CONTROL DE VENTAS</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -171,9 +171,6 @@
     <t>Concepto</t>
   </si>
   <si>
-    <t>SISTEMA WEB PARA MEJORAR CONTROL DE VENTAS EN LA EMPRESA NANIFARFALLA</t>
-  </si>
-  <si>
     <t>Para poder tener exito en un negocio de venta online, es necesario dar al mercado un motivo para que te compren a ti en lugar de a un competidor. Es necesario por tanto desarrollar una ventaja competitiva, que tiene que estar sorpotada en una de una de estas tres posibilidades: producto unico, precio mas bajo, servicio. Si nuestro negocio consiste en vender productos o servicios por internet, esencia de comercio electronico, deberemos tener muy presente que la interaccion con nuestros clientes y potenciales basicamente se desarrollara online y que nuestra web sera el principal elemento generador de sensaciones.</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
     <t>Orientacion Comercial</t>
   </si>
   <si>
-    <t>Calidad de servicio</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Según Ignacio Somalo (2017,p. 50) indica que la plataforma, como unica via de acceso al cliente, debe ser capaz de resover las </t>
     </r>
@@ -242,9 +236,6 @@
     <t>Necesidades de clientes</t>
   </si>
   <si>
-    <t>Cantidad de Respuestas rapidas</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Según Ignacio Somalo (2017,p. 50) indica que la tecnologia debe garantizar una elevada flexibilidad para adaptarse agilmente los </t>
     </r>
@@ -274,110 +265,25 @@
     <t>Ignacio Somalo (2017) indica que el negocio consiste en vender productos o servicios por internet, esencia de comercio electronico, deberemos tener muy presente que la interaccion con nuestros clientes y potenciales basicamente se desarrollara online y que nuestra web sera el principal elemento generador de sensaciones.Estas determinaran si la experiencia final del cliente ha sido positiva o negativa. Los factores clave de exito que la tecnologia debe aportar al negocio de comercio electronico son: Orientacion Comercial, calidad de servicio, disponibilidad, rendimiento, estabilidad, costes bajos y decrecientes.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Ignacio Somalo (2017) indica que el negocio consiste en vender productos o servicios por internet,  deberemos tener muy presente que la interaccion con nuestros clientes y potenciales basicamente se desarrollara online y que nuestra web sera el principal elemento generador de sensaciones. Estas determinaran si la experiencia final del cliente ha sido positiva o negativa. Los factores clave de exito que la tecnologia debe aportar al negocio de comercio electronico son: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Orientacion Comercial, calidad de servicio, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">disponibilidad, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rendimiento</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, estabilidad, costes bajos y decrecientes.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Según Ignacio Somalo (2017,p. 50) indica que el rendimiento es la capacidad de dar </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>respuestas rapidas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a las peticiones de los usuarios. El tiempo de respuesta que se requiere para una navegacion digital es casi inmediato.</t>
-    </r>
-  </si>
-  <si>
     <t>Concepto Indicador</t>
   </si>
   <si>
     <t>Contabilizacion de la cantidad de peticiones hechas a un servidor para motrar respuesta en de alguna accion. (Christine Hine)</t>
   </si>
   <si>
-    <t>https://books.google.com.pe/books?id=GJ8tEAAAQBAJ&amp;printsec=frontcover&amp;hl=es#v=onepage&amp;q&amp;f=false</t>
-  </si>
-  <si>
     <t>Cambios en el mercado</t>
   </si>
   <si>
-    <t>https://books.google.com.pe/books?id=cB4icTcxJhEC&amp;printsec=frontcover&amp;hl=es#v=onepage&amp;q&amp;f=false</t>
-  </si>
-  <si>
     <t>La venta se define como un proceso de construccion de relaciones con el cliente, indentificacion de sus necesidades, ajuste de la oferta a dichas necesidades y comunicacion de los beneficios para el cliente. (Enrique Díez, p.451)</t>
   </si>
   <si>
     <t>La evolucion del mercado hacia modelos mas tecnologicos es unos de los factores a tener en cuenta; los tiempos han cambiado y es necesario evolucionar para sobrevivir. (Jose García Llorente, p.37)</t>
   </si>
   <si>
-    <t>https://books.google.com.pe/books?id=8qxCDwAAQBAJ&amp;printsec=frontcover&amp;hl=es#v=onepage&amp;q&amp;f=false</t>
-  </si>
-  <si>
     <t>Definición Conceptual</t>
   </si>
   <si>
     <t>Definicion Operacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para tener un control en las ventas de forma exitosa aplicando tencologia se debe tener en cuenta ciertos factores para aporta el comercio electronico: Orientacion Comercial, Calidad de servicio, rendimiento. </t>
   </si>
   <si>
     <t>Instrumento</t>
@@ -393,6 +299,193 @@
 X:Numero de peticiones procesadas
 A:Numero maximo de respuestas recibidas
 T:Tiempo de operación</t>
+  </si>
+  <si>
+    <t>SISTEMA WEB PARA MEJORAR la GESTION DE VENTAS EN LA EMPRESA NANIFARFALLA</t>
+  </si>
+  <si>
+    <t>Según Manuel Artal Castells la gestion de ventas y su rentabilidad, de las cuestiones financieras con ellas relacionada y de los costes, nos permite conocer como nuestras ventas y los defectos que tenemos que corregir, pero no nos indica suficientemente la calidad de nuestros vendedores.</t>
+  </si>
+  <si>
+    <t>Hipotesis General</t>
+  </si>
+  <si>
+    <t>Objetivo General</t>
+  </si>
+  <si>
+    <t>Problema General</t>
+  </si>
+  <si>
+    <t>Hipotesis Especificas</t>
+  </si>
+  <si>
+    <t>Objetivos Especificos</t>
+  </si>
+  <si>
+    <t>Problemas Especificos</t>
+  </si>
+  <si>
+    <t>SISTEMA WEB</t>
+  </si>
+  <si>
+    <t>Variable Independiente</t>
+  </si>
+  <si>
+    <t>Variable Dependiente</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>Indicador</t>
+  </si>
+  <si>
+    <t>CONTROL DE VENTAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para mejorar el control sobre las ventas de forma exitosa aplicando tencologia se debe tener en cuenta ciertos factores para aporta el comercio electronico: Orientacion Comercial, Calidad de servicio, rendimiento. </t>
+  </si>
+  <si>
+    <t>SISTEMA WEB PARA MEJORAR EL CONTROL DE VENTAS EN LA EMPRESA NANIFARFALLA</t>
+  </si>
+  <si>
+    <t>1. ¿Cómo influye la implementacion de un sistema web en la cantidad de peticiones correctas en las ventas de la empresa Nanifarfalla?</t>
+  </si>
+  <si>
+    <t>Cantidad de Peticiones Correctas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Según Ignacio Somalo (2017,p. 50) indica que el rendimiento es la capacidad de dar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>respuestas rapidas a las peticiones</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de los usuarios. El tiempo de respuesta que se requiere para una navegacion digital es casi inmediato.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cantidad de Peticiones correctas</t>
+  </si>
+  <si>
+    <t>Calidad</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ignacio Somalo (2017, p. 49) indica que el negocio consiste en vender productos o servicios por internet,  deberemos tener muy presente que la interaccion con nuestros clientes y potenciales basicamente se desarrollara online y que nuestra web sera el principal elemento generador de sensaciones. Estas determinaran si la experiencia final del cliente ha sido positiva o negativa. Los factores clave de exito que la tecnologia debe aportar al negocio de comercio electronico son: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Orientacion Comercial, calidad </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de servicio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">disponibilidad, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rendimiento</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, estabilidad, costes bajos y decrecientes.</t>
+    </r>
+  </si>
+  <si>
+    <t>¿Cómo influye la implementacion de un sistema web en la mejora del control de ventas de la empresa Nanifarfalla?</t>
+  </si>
+  <si>
+    <t>Determinar como influye la implementacion de un sistema web en la mejora del control de ventas de la empresa Nanifarfalla.</t>
+  </si>
+  <si>
+    <t>La implementacion de un sistema web influye significativamente en la mejora del control de ventas de la empresa Nanifarfalla.</t>
+  </si>
+  <si>
+    <t>2. ¿Cómo influye la implementacion de un sistema web en la calidad del control de ventas de la empresa Nanifarfalla?</t>
+  </si>
+  <si>
+    <t>1. Determinar como influye la implementacion de un sistema web en la cantidad de peticiones correctas en las ventas de la empresa Nanifarfalla.</t>
+  </si>
+  <si>
+    <t>1. La implementacion de un sistema web influye positivamente en la cantidad de peticiones correctas en las ventas de la empresa Nanifarfalla.</t>
+  </si>
+  <si>
+    <t>2. La implementacion de un sistema web influye positivamente en la calidad del control de ventas de la empresa Nanifarfalla.</t>
+  </si>
+  <si>
+    <t>3. La implementacion de un sistema web influye positivamente en la orientacion comercial de la empresa Nanifarfalla.</t>
+  </si>
+  <si>
+    <t>3. Determinar cómo influye la implementacion de un sistema web en la orientacion comercial de la empresa Nanifarfalla.</t>
+  </si>
+  <si>
+    <t>3. ¿Cómo influye la implementacion de un sistema web en la orientacion comercial de la empresa Nanifarfalla?</t>
+  </si>
+  <si>
+    <t>2. Determinar cómo influye la implementacion de un sistema web en la calidad del control de ventas de la empresa Nanifarfalla.</t>
   </si>
 </sst>
 </file>
@@ -503,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -524,38 +617,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -572,6 +638,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -890,7 +1019,7 @@
   <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,8 +1032,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
-        <v>16</v>
+      <c r="B1" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -922,8 +1051,8 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>12</v>
+      <c r="B4" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -936,7 +1065,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="6">
         <v>2</v>
       </c>
@@ -948,19 +1077,19 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="6">
         <v>3</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="6">
         <v>4</v>
       </c>
@@ -968,19 +1097,19 @@
         <v>7</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="162" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="6">
         <v>5</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -994,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E127DFAC-1ED0-4FEB-8124-18ABFBAC0C99}">
-  <dimension ref="B1:L12"/>
+  <dimension ref="B1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="K12" sqref="G3:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,29 +1138,28 @@
     <col min="5" max="5" width="33.5703125" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="50.42578125" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" customWidth="1"/>
     <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="48" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" customWidth="1"/>
-    <col min="12" max="12" width="40.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.85546875" customWidth="1"/>
+    <col min="11" max="11" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1039,36 +1167,33 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -1080,14 +1205,13 @@
       <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="2:12" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
+    </row>
+    <row r="5" spans="2:11" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="25"/>
       <c r="C5" s="6">
         <v>2</v>
       </c>
@@ -1098,14 +1222,13 @@
       <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="2:12" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
+    </row>
+    <row r="6" spans="2:11" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="25"/>
       <c r="C6" s="6">
         <v>3</v>
       </c>
@@ -1116,150 +1239,384 @@
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="2:12" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="13">
+    </row>
+    <row r="7" spans="2:11" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="25"/>
+      <c r="C7" s="30">
         <v>4</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="D7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="2:12" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
+    </row>
+    <row r="8" spans="2:11" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="25"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="2:12" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+    </row>
+    <row r="9" spans="2:11" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="25"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="2:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="13">
+    </row>
+    <row r="10" spans="2:11" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="25"/>
+      <c r="C10" s="30">
         <v>5</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="25"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="26"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E10:E12"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="F10:F12"/>
+    <mergeCell ref="H7:H9"/>
     <mergeCell ref="B4:B12"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="E10:E12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27303C5-A7A0-492B-B7CC-69219E8B873B}">
+  <dimension ref="A2:E5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC2B9CC-A766-4BE8-8692-AEF133B23610}">
+  <dimension ref="B1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+    </row>
+    <row r="4" spans="2:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="E6:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/Matriz de autores-libro Hermosilla Joffre y Ulfe Hugo.xlsx
+++ b/Matriz de autores-libro Hermosilla Joffre y Ulfe Hugo.xlsx
@@ -8,18 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7FDE1C-8623-40D8-9B20-120B433ACEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BE6841-8050-4FB6-9528-4BF9E3955E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DA185794-AA02-4B65-AB94-48B45DD07D0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DA185794-AA02-4B65-AB94-48B45DD07D0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz autores " sheetId="3" r:id="rId1"/>
     <sheet name="Matriz Operacional" sheetId="4" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="6" r:id="rId3"/>
-    <sheet name="Matriz de Consistencia" sheetId="5" r:id="rId4"/>
+    <sheet name="Matriz de Consistencia" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>Variable</t>
   </si>
@@ -349,12 +347,6 @@
     <t>SISTEMA WEB PARA MEJORAR EL CONTROL DE VENTAS EN LA EMPRESA NANIFARFALLA</t>
   </si>
   <si>
-    <t>1. ¿Cómo influye la implementacion de un sistema web en la cantidad de peticiones correctas en las ventas de la empresa Nanifarfalla?</t>
-  </si>
-  <si>
-    <t>Cantidad de Peticiones Correctas</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Según Ignacio Somalo (2017,p. 50) indica que el rendimiento es la capacidad de dar </t>
     </r>
@@ -381,9 +373,6 @@
     </r>
   </si>
   <si>
-    <t>Cantidad de Peticiones correctas</t>
-  </si>
-  <si>
     <t>Calidad</t>
   </si>
   <si>
@@ -455,37 +444,52 @@
     </r>
   </si>
   <si>
-    <t>¿Cómo influye la implementacion de un sistema web en la mejora del control de ventas de la empresa Nanifarfalla?</t>
-  </si>
-  <si>
-    <t>Determinar como influye la implementacion de un sistema web en la mejora del control de ventas de la empresa Nanifarfalla.</t>
-  </si>
-  <si>
     <t>La implementacion de un sistema web influye significativamente en la mejora del control de ventas de la empresa Nanifarfalla.</t>
   </si>
   <si>
-    <t>2. ¿Cómo influye la implementacion de un sistema web en la calidad del control de ventas de la empresa Nanifarfalla?</t>
-  </si>
-  <si>
-    <t>1. Determinar como influye la implementacion de un sistema web en la cantidad de peticiones correctas en las ventas de la empresa Nanifarfalla.</t>
-  </si>
-  <si>
-    <t>1. La implementacion de un sistema web influye positivamente en la cantidad de peticiones correctas en las ventas de la empresa Nanifarfalla.</t>
-  </si>
-  <si>
     <t>2. La implementacion de un sistema web influye positivamente en la calidad del control de ventas de la empresa Nanifarfalla.</t>
   </si>
   <si>
     <t>3. La implementacion de un sistema web influye positivamente en la orientacion comercial de la empresa Nanifarfalla.</t>
   </si>
   <si>
-    <t>3. Determinar cómo influye la implementacion de un sistema web en la orientacion comercial de la empresa Nanifarfalla.</t>
-  </si>
-  <si>
-    <t>3. ¿Cómo influye la implementacion de un sistema web en la orientacion comercial de la empresa Nanifarfalla?</t>
-  </si>
-  <si>
-    <t>2. Determinar cómo influye la implementacion de un sistema web en la calidad del control de ventas de la empresa Nanifarfalla.</t>
+    <t>¿Cómo influye la implementación de un sistema web los procesos ventas de la empresa Nanifarfalla?</t>
+  </si>
+  <si>
+    <t>X=A/T
+X:Numero de peticiones procesadas correctamente
+A:Numero maximo de respuestas recibidas
+T:Tiempo de operación</t>
+  </si>
+  <si>
+    <t>Peticiones Correctas</t>
+  </si>
+  <si>
+    <t>Peticiones correctas</t>
+  </si>
+  <si>
+    <t>3. Ampliar la orientacion comercial de la empresa Nanifarfalla a traves de la implementacion de un sistema web.</t>
+  </si>
+  <si>
+    <t>2. Mejorar la calidad de respuesta en los procesos de venta y almacén de la empresa Nanifarfalla implementando un sistema web.</t>
+  </si>
+  <si>
+    <t>1. Aumentar la cantidad de peticiones correctas en las ventas de la empresa Nanifarfalla a través la implementación de un sistema web.</t>
+  </si>
+  <si>
+    <t>1. La implementacion de un sistema web influye positivamente en la cantidad de peticiones correctas en los procesos de ventas de la empresa Nanifarfalla.</t>
+  </si>
+  <si>
+    <t>1. ¿De qué manera la cantidad de peticiones de la empresa Nanifarfalla influyen en el proceso de ventas a través de un sistema web?</t>
+  </si>
+  <si>
+    <t>2. ¿De qué manera la calidad influye en el control de ventas en la empresa Nanifarfalla a través de un sistema web?</t>
+  </si>
+  <si>
+    <t>3. ¿De qué manera la orientación comercial influye en la empresa Nanifarfalla a través de un sistema web?</t>
+  </si>
+  <si>
+    <t>Mejorar  el control de ventas de la empresa Nanifarfalla a traves de la implementacion de un sistema web.</t>
   </si>
 </sst>
 </file>
@@ -596,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -639,56 +643,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1051,7 +1043,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="6">
@@ -1065,7 +1057,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="6">
         <v>2</v>
       </c>
@@ -1077,7 +1069,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="25"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="6">
         <v>3</v>
       </c>
@@ -1089,7 +1081,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="25"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="6">
         <v>4</v>
       </c>
@@ -1101,7 +1093,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="162" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="6">
         <v>5</v>
       </c>
@@ -1126,7 +1118,7 @@
   <dimension ref="B1:K12"/>
   <sheetViews>
     <sheetView topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="K12" sqref="G3:K12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1184,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="6">
@@ -1211,7 +1203,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="6">
         <v>2</v>
       </c>
@@ -1228,7 +1220,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:11" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="25"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="6">
         <v>3</v>
       </c>
@@ -1245,66 +1237,66 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:11" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="25"/>
-      <c r="C7" s="30">
+      <c r="B7" s="21"/>
+      <c r="C7" s="23">
         <v>4</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="14"/>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:11" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="25"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="28"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:11" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="25"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:11" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="30">
+      <c r="B10" s="21"/>
+      <c r="C10" s="23">
         <v>5</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="27" t="s">
+      <c r="D10" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="26" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>25</v>
@@ -1314,13 +1306,13 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>19</v>
@@ -1336,11 +1328,11 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="26"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="12" t="s">
         <v>18</v>
       </c>
@@ -1359,17 +1351,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="H7:H9"/>
     <mergeCell ref="B4:B12"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="E10:E12"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="H7:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -1377,101 +1369,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27303C5-A7A0-492B-B7CC-69219E8B873B}">
-  <dimension ref="A2:E5"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC2B9CC-A766-4BE8-8692-AEF133B23610}">
   <dimension ref="B1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,100 +1394,100 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="21" t="s">
+      <c r="D7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="19" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -1594,19 +1496,19 @@
     </row>
     <row r="8" spans="2:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="19" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="3" t="s">
